--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.747653236297358</v>
+        <v>0.7474139358276786</v>
       </c>
       <c r="E2">
-        <v>0.747653236297358</v>
+        <v>0.7474139358276786</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0003935515939469137</v>
+        <v>0.0003939682687483869</v>
       </c>
       <c r="E3">
-        <v>0.0003935515939469137</v>
+        <v>0.0003939682687483869</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.01560048220396349</v>
+        <v>0.01559977197893658</v>
       </c>
       <c r="E4">
-        <v>0.01560048220396349</v>
+        <v>0.01559977197893658</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0002463808051441528</v>
+        <v>0.0002463296822664912</v>
       </c>
       <c r="E5">
-        <v>0.0002463808051441528</v>
+        <v>0.0002463296822664912</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.958367811797282</v>
+        <v>0.9583940106226873</v>
       </c>
       <c r="E6">
-        <v>0.958367811797282</v>
+        <v>0.9583940106226873</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.999416444191549</v>
+        <v>0.9924205679872576</v>
       </c>
       <c r="E7">
-        <v>0.0005835558084510417</v>
+        <v>0.00757943201274236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9993550566775805</v>
+        <v>0.8703013505422813</v>
       </c>
       <c r="E8">
-        <v>0.0006449433224194889</v>
+        <v>0.1296986494577187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9993677329845584</v>
+        <v>0.8017258803033372</v>
       </c>
       <c r="E9">
-        <v>0.0006322670154416121</v>
+        <v>0.1982741196966628</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9993001998469123</v>
+        <v>0.9868680309480609</v>
       </c>
       <c r="E10">
-        <v>0.0006998001530876818</v>
+        <v>0.01313196905193914</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9994274895824869</v>
+        <v>0.3875683154749018</v>
       </c>
       <c r="E11">
-        <v>0.0005725104175130502</v>
+        <v>0.6124316845250982</v>
       </c>
       <c r="F11">
-        <v>0.4575329720973969</v>
+        <v>0.5900471806526184</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9405622163416886</v>
+        <v>0.9399071752257445</v>
       </c>
       <c r="E12">
-        <v>0.9405622163416886</v>
+        <v>0.9399071752257445</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.021337394129201E-05</v>
+        <v>1.025645611479696E-05</v>
       </c>
       <c r="E13">
-        <v>1.021337394129201E-05</v>
+        <v>1.025645611479696E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.003525059097616391</v>
+        <v>0.003525057537844885</v>
       </c>
       <c r="E14">
-        <v>0.003525059097616391</v>
+        <v>0.003525057537844885</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0002175991639379072</v>
+        <v>0.0002182980614822648</v>
       </c>
       <c r="E15">
-        <v>0.0002175991639379072</v>
+        <v>0.0002182980614822648</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9966183896502286</v>
+        <v>0.9966281373826422</v>
       </c>
       <c r="E16">
-        <v>0.9966183896502286</v>
+        <v>0.9966281373826422</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999335891708807</v>
+        <v>0.9995934061220472</v>
       </c>
       <c r="E17">
-        <v>6.641082911928997E-05</v>
+        <v>0.0004065938779528322</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.999918319898728</v>
+        <v>0.5680510187688258</v>
       </c>
       <c r="E18">
-        <v>8.168010127196368E-05</v>
+        <v>0.4319489812311742</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9999135674113883</v>
+        <v>0.9979619122808111</v>
       </c>
       <c r="E19">
-        <v>8.643258861174008E-05</v>
+        <v>0.002038087719188897</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999076245429478</v>
+        <v>0.9995658757830147</v>
       </c>
       <c r="E20">
-        <v>9.237545705220729E-05</v>
+        <v>0.0004341242169852988</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9999271359694889</v>
+        <v>0.990401166427946</v>
       </c>
       <c r="E21">
-        <v>7.286403051109946E-05</v>
+        <v>0.009598833572054044</v>
       </c>
       <c r="F21">
-        <v>0.8516389131546021</v>
+        <v>0.9085984230041504</v>
       </c>
       <c r="G21">
         <v>0.8</v>
